--- a/snn/tmp/small_gear.xlsx
+++ b/snn/tmp/small_gear.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\secure\snn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="10545"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
   <si>
     <t>HM</t>
   </si>
@@ -24,12 +29,6 @@
     <t>6L</t>
   </si>
   <si>
-    <t>EM</t>
-  </si>
-  <si>
-    <t>9L</t>
-  </si>
-  <si>
     <t>HM;SM</t>
   </si>
   <si>
@@ -42,9 +41,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -54,70 +50,265 @@
     <t>24</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
+    <t>Ares Light Fire 70</t>
+  </si>
+  <si>
+    <t>Beretta 200ST</t>
+  </si>
+  <si>
+    <t>Colt America L36</t>
+  </si>
+  <si>
+    <t>Fichetti Exec. Action</t>
+  </si>
+  <si>
+    <t>Fichetti Security 500</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>Lasermarkierer</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>Int. Smartlink II, RSD(1)</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>RSD(1), Int. Smartlink, SM =</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Browning Max-Power</t>
+  </si>
+  <si>
+    <t>Colt Manhunter</t>
+  </si>
+  <si>
+    <t>H&amp;K Urban Fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruger Super Warhawk </t>
+  </si>
+  <si>
+    <t>Savalette Guardian</t>
+  </si>
+  <si>
+    <t>Mauser Gladiator</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>RC:(1),Lasermarkierer, Schallunterd</t>
+  </si>
+  <si>
+    <t>RSD(3), Schallunterdrücker,</t>
+  </si>
+  <si>
+    <t>RSD2(3), int. Smartlink</t>
+  </si>
+  <si>
+    <t>smg</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>HM;SM;AM</t>
+  </si>
+  <si>
+    <t>SM;AM</t>
+  </si>
+  <si>
+    <t>Colt Cobra TZ-118</t>
+  </si>
+  <si>
+    <t>AK-97 MP/Karabiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H&amp;K 227-S </t>
+  </si>
+  <si>
+    <t>H&amp;K Urban Combat S</t>
+  </si>
+  <si>
+    <t>Ingram Smartgun</t>
+  </si>
+  <si>
+    <t>Ingram Warrior-10</t>
+  </si>
+  <si>
+    <t>Schulterstütze</t>
+  </si>
+  <si>
+    <t>Ares Predator III</t>
+  </si>
+  <si>
+    <t>Int. Smartlink (2)</t>
+  </si>
+  <si>
+    <t>Gasventil 1</t>
+  </si>
+  <si>
+    <t>Schulterstütze; Gasventil 2</t>
+  </si>
+  <si>
+    <t>9S</t>
+  </si>
+  <si>
+    <t>7S</t>
+  </si>
+  <si>
+    <t>Vergr(1)</t>
+  </si>
+  <si>
+    <t>Vergr(3)</t>
+  </si>
+  <si>
+    <t>14S</t>
+  </si>
+  <si>
+    <t>RSD2, Lichtverst. oder IR, Vergr(3), S</t>
+  </si>
+  <si>
+    <t>rifle</t>
+  </si>
+  <si>
+    <t>Remington 950</t>
+  </si>
+  <si>
+    <t>Ruger 100</t>
+  </si>
+  <si>
+    <t>Ranger Arms SM-3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>melee</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>Centurion Laseraxt</t>
+  </si>
+  <si>
+    <t>Cougar Fineblade lang</t>
+  </si>
+  <si>
+    <t>Katana</t>
+  </si>
+  <si>
+    <t>Schwert</t>
+  </si>
+  <si>
+    <t>Streitaxt</t>
+  </si>
+  <si>
+    <t>Unterarmschnappklingen</t>
+  </si>
+  <si>
+    <t>Vibromesser</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Keule mit Spitzen</t>
+  </si>
+  <si>
+    <t>Claymore</t>
+  </si>
+  <si>
+    <t>Schicke Lederklamotte</t>
+  </si>
+  <si>
+    <t>Echtleder Kleidung</t>
+  </si>
+  <si>
+    <t>Panzerjacke</t>
+  </si>
+  <si>
+    <t>Panzerweste</t>
+  </si>
+  <si>
+    <t>Gefütterter Mantel</t>
+  </si>
+  <si>
+    <t>Leichter Sicherheitspanzer</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>Ares Light Fire 70</t>
-  </si>
-  <si>
-    <t>Beretta 200ST</t>
-  </si>
-  <si>
-    <t>Beretta Model 101T</t>
-  </si>
-  <si>
-    <t>Ceska vz/120</t>
-  </si>
-  <si>
-    <t>Colt America L36</t>
-  </si>
-  <si>
-    <t>Colt Asp</t>
-  </si>
-  <si>
-    <t>Fichetti Exec. Action</t>
-  </si>
-  <si>
-    <t>Fichetti Security 500</t>
-  </si>
-  <si>
-    <t>Fichetti Security 500a</t>
-  </si>
-  <si>
-    <t>Glock-Mini "Giftzwerg"</t>
-  </si>
-  <si>
-    <t>Hämmerli Model 610S</t>
-  </si>
-  <si>
-    <t>H&amp;K Caveat</t>
-  </si>
-  <si>
-    <t>Mauser Ladyline</t>
-  </si>
-  <si>
-    <t>SA Puzzler</t>
-  </si>
-  <si>
-    <t>Seco LD-120</t>
-  </si>
-  <si>
-    <t>Walther PB-120</t>
-  </si>
-  <si>
-    <t>weapon</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>armor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -605,6 +796,39 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -656,14 +880,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -701,9 +928,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,9 +963,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -771,9 +1015,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -947,24 +1208,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="29.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -980,39 +1242,59 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1028,12 +1310,21 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1043,304 +1334,1111 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>650</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>450</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>425</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2300</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>600</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1800</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="14">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14">
+        <v>32</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1700</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2400</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14">
+        <v>36</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15">
+        <v>8000</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="14">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1550</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="14">
+        <v>30</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15">
+        <v>850</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="18">
+        <v>5</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>800</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="18">
+        <v>5</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1300</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="18">
+        <v>6</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>12000</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>200</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19">
+        <v>1500</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19">
+        <v>500</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19">
+        <v>1700</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19">
+        <v>750</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19">
+        <v>2000</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <v>2</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="19">
+        <v>750</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="19">
+        <v>2700</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="19">
+        <v>400</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1400</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34">
         <v>4</v>
       </c>
-      <c r="F7" s="3">
-        <v>1150</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="K34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="19">
+        <v>25000</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>550</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>350</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>900</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>700</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>31</v>
+      <c r="K35" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1354,7 +2452,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1366,7 +2464,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
